--- a/Code/results/ROC_AUC.thresholds.table.xlsx
+++ b/Code/results/ROC_AUC.thresholds.table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/LAB/Raji_Summer2019_atom/Code/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6AF366-189D-CE42-A6CF-4DCD7B5E1309}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6C530248-D728-CC49-BC06-0FE21E2F8565}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
   </bookViews>
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
